--- a/ApolloQA/Data/RatingManual/SC/VA00061.IncreasedCombinedSingleLimitFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00061.IncreasedCombinedSingleLimitFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00061.IncreasedCombinedSingleLimitFactors" sheetId="1" r:id="R008856840a364fd8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00061.IncreasedCombinedSingleLimitFactors" sheetId="1" r:id="R51bf09dcc5fb4215"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -973,6 +973,23 @@
         <x:v>9</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$300,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.3675</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$350,000</x:v>
       </x:c>
       <x:c t="str">
@@ -1908,6 +1925,23 @@
         <x:v>40</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$95,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.6669</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$100,000</x:v>
       </x:c>
       <x:c t="str">
@@ -2830,6 +2864,23 @@
       </x:c>
       <x:c t="str">
         <x:v>1.3744</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>For Hire Public</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$65,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4231</x:v>
       </x:c>
     </x:row>
     <x:row>
